--- a/dataconfig/title.xlsx
+++ b/dataconfig/title.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
   <si>
     <t>Title</t>
   </si>
@@ -33,232 +33,239 @@
     <t>img_content</t>
   </si>
   <si>
-    <t>韩国身份链 Metadium 的平台、协议与服务</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/273719.html</t>
-  </si>
-  <si>
-    <t>从三个维度入手，概括Metadium的本质。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330501_image1.png</t>
-  </si>
-  <si>
-    <t>今日全球数字货币市值排行TOP6 瑞波币篡位升至市值第二</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/185938</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330496_image1.png</t>
-  </si>
-  <si>
-    <t>BCH分叉后会怎么样？</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/273718.html</t>
-  </si>
-  <si>
-    <t>这些攻击是“令人兴奋的”，因为它们允许区块链在更强大的场景下进行实战测试。 比特币现金正在进行的口水战于今日告一段落。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330481_image1.png</t>
-  </si>
-  <si>
-    <t>创新驱动 链接未来 特股区块链特邀您参加2018中部区块链产业应用高峰论坛</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/199723</t>
-  </si>
-  <si>
-    <t>世界进步看中国，科技创新看安徽</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330475_image1.png</t>
-  </si>
-  <si>
-    <t>不做吃瓜群众 给用户的BCH分叉指南</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/273717.html</t>
-  </si>
-  <si>
-    <t>比特币现金（BCH）网络将于UNIX时间戳1542300000（北京时间2018年11月16日0:40:0）进行一次硬分叉协议升级。由于本次升级存在争议，很多用</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330471_image1.png</t>
-  </si>
-  <si>
-    <t>区块链行业的“美女经济”  你是不是又想歪了</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/196985</t>
-  </si>
-  <si>
-    <t>“美女经济”，即围绕美女资源进行财富创造和分配的经济活动，是一种特有的经济形式。需要声明的是，美女不是被直接消费的商品，而是美丽传播的介质……</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330466_image1.png</t>
-  </si>
-  <si>
-    <t>区块链在资源存储方面的作用</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/273716.html</t>
-  </si>
-  <si>
-    <t>区块链的发展将会重新定义存储资源的分配规则，由“分布式收集-中心化存储”转为“分布式收集-分布式存储”。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330464_image1.png</t>
-  </si>
-  <si>
-    <t>币易Coinyee.io第8期周五福利日：晒单瓜分BTC糖果大礼包</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/178373</t>
-  </si>
-  <si>
-    <t>币易Coinyee第8期周五福利日的主题是：晒单有奖！亮出你的币圈交易单 · 抢瓜价值8888元BTC糖果大礼包。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330338_image1.png</t>
-  </si>
-  <si>
-    <t>二哥论币 | 新闻早知道（2018.11.16 AM10:00）</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/273715.html</t>
+    <t>Google Play中发现‘虚假虚拟货币钱包’为了盗取个人信息</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/274117.html</t>
+  </si>
+  <si>
+    <t>Google Play Store中发现了虚假虚拟货币钱包</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332765_image1.png</t>
+  </si>
+  <si>
+    <t>监管松绑？｜美国众议员推行新法案 拟允许lCO绕过SEC 管制</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/205115</t>
+  </si>
+  <si>
+    <t>允许lCO回避证券法，并通过将货币视为产品而非证券来消除SEC对该行业的管辖权。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332741_image1.png</t>
+  </si>
+  <si>
+    <t>穿越熊市 区块链定投日记第22篇</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/274116.html</t>
+  </si>
+  <si>
+    <t>最稳健区块链投资日记！</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1304597_image1.png</t>
+  </si>
+  <si>
+    <t>二哥论币 | 晚资讯（2018.11.16 PM5:20）</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/79757</t>
   </si>
   <si>
     <t>https://img.jinse.com/1149269_image1.png</t>
   </si>
   <si>
-    <t>BCH硬分叉成功,首个区块由吴忌寒阵营爆出!</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/28979</t>
-  </si>
-  <si>
-    <t>真正的输家是所有持币和相信数字货币的人。毕竟全世界都知道一个所谓去中心化的数字货币。而现在却被一个个人或者企业控制了，算力切换那一瞬间，我哭了。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330378_image1.png</t>
-  </si>
-  <si>
-    <t>整理BCH算力大战集锦 就像看了8部“速度与激情”</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/273714.html</t>
-  </si>
-  <si>
-    <t>BCH 升级延迟、比特大陆空降算力反超“敌营”、“被攻击”的传言四起、SV 链逐渐失势……</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330427_image1.png</t>
-  </si>
-  <si>
-    <t>币圈缉盗指南 | 我要开个交易所 踏踏实实地割韭菜 （上）</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/161226</t>
-  </si>
-  <si>
-    <t>本本分分搞技术，勤勤恳恳割韭菜。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330387_image1.png</t>
-  </si>
-  <si>
-    <t>区块链+系列 | 车联网与区块链的碰撞</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/273713.html</t>
-  </si>
-  <si>
-    <t>区块链技术具有去中心化、开放性、自治性、信息不可篡改、匿名性等特征。作为一种数据存储平台，具有去除中间机构，降低运行成本、公开透明，提升效率、数据安全性等优势。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330333_image1.png</t>
-  </si>
-  <si>
-    <t>欲成大器者 必受万般捶打</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/182099</t>
-  </si>
-  <si>
-    <t>我们要持有价值币熬过这个熊市</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330361_image1.png</t>
-  </si>
-  <si>
-    <t>Filenet进度|主链即将上线</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/273712.html</t>
-  </si>
-  <si>
-    <t>据自治社区透露，Filenet将于本月（11月）15号终止第三阶段内测，结束为期一月有余的Fn内测，并将于11月25号左右正式上线Filenet主链，全面开挖。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330331_image1.png</t>
-  </si>
-  <si>
-    <t>对区块链钱包开发系统架构</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/28826</t>
-  </si>
-  <si>
-    <t>随着国内区块链数字货币交易平台的逐步完善，区块链钱包开发和使用会越来越频繁和重要对区块链钱包开发系统架构。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330337_image1.png</t>
-  </si>
-  <si>
-    <t>莫斯科：加密货币支付缓慢预热</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/273711.html</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330327_image1.png</t>
-  </si>
-  <si>
-    <t>比特币现金分叉之后会发生什么？</t>
+    <t>BCH加剧币圈空头格局未来之路何去何从</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/274115.html</t>
+  </si>
+  <si>
+    <t>不凡看币，技术为主！！！</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1331919_image1.png</t>
+  </si>
+  <si>
+    <t>OKCoin计划以阿根廷为起点,将业务扩至整个拉美地区!</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/207865</t>
+  </si>
+  <si>
+    <t>设在布宜诺斯艾利斯的OKCoin办事处将全力推动该公司在整个拉丁美洲的业务顺利进行</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332657_image1.png</t>
+  </si>
+  <si>
+    <t>大表姐视频：隔离见证机制是什么 + 3大优势</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/274113.html</t>
+  </si>
+  <si>
+    <t>我们这期会针对这个概念给大家用最容易理解的方式介绍一下“隔离见证”到底是什么。有网络的可以点击上面看视频，没有的可以看着文字稿件。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332732_image1.png</t>
+  </si>
+  <si>
+    <t>牛逼的BCH 比肩空气币</t>
   </si>
   <si>
     <t>https://www.jinse.com/member/164959</t>
   </si>
   <si>
-    <t>比特币现金正在进行的口水战将于今日告一段落。 届时,一项计划中的技术更新(以及对提出的代码修改的持续分歧)可能会导致两种主要的比特币现金实施Bitcoin ABC和bitcoin SV分裂为两条单独的区</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330395_image1.png</t>
-  </si>
-  <si>
-    <t>区块征信链：黑客才是比特币的幕后推手？</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/273710.html</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1327385_image1.png</t>
-  </si>
-  <si>
-    <t>比特币矿机厂商上市遇阻：曝嘉楠耘智IPO今年已无望</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/188129</t>
-  </si>
-  <si>
-    <t>香港证券交易所网站信息显示，全球领先的加密货币矿机制造商嘉楠耘智（Canaan Inc.）的赴港上市申请于周四期满失效，加深了外界对中国其他比特币矿机制造商之前景的担忧。 嘉楠耘智在六个月前提交了IPO申请，根据文件当时的IPO规模至少可达</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330396_image1.png</t>
+    <t>这个冬天比较冷。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332701_image1.png</t>
+  </si>
+  <si>
+    <t>娱乐链等已成功入驻大型区块链娱乐平台《百姓乐》 - 招募合伙人行动还在进行中</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/273969.html</t>
+  </si>
+  <si>
+    <t>百姓乐》娱乐游戏平台是基于区块链技术的一款大型娱乐游戏平台</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1331364_image1.png</t>
+  </si>
+  <si>
+    <t>道阻且艰 | 上市之路 行则将至</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/27995</t>
+  </si>
+  <si>
+    <t>全球区块链巨头公司，正掀起第一轮上市热潮，在这股热潮下，已经有一大批区块链企业表现出上市的意向。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332686_image1.png</t>
+  </si>
+  <si>
+    <t>BCH分叉大战硝烟未尽  互撕闹剧才刚开始？</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/274112.html</t>
+  </si>
+  <si>
+    <t>互撕刚开始？烧钱之战揭开序幕</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332673_image1.png</t>
+  </si>
+  <si>
+    <t>账本与分布式账本</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/187299</t>
+  </si>
+  <si>
+    <t>从比特币的问世到区块链技术，我们知道区块链是一种去中心化的分布式账本系统，那么什么是分布式账本，能给我们带来哪些好处，与传统账本有什么区别？</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332538_image1.png</t>
+  </si>
+  <si>
+    <t>账号找回  吃鸡诛仙   区块链引领游戏时代新变革</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/274111.html</t>
+  </si>
+  <si>
+    <t>区块链无遗将会为游戏玩家带来史无前例的自由和民主。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332589_image1.png</t>
+  </si>
+  <si>
+    <t>Superior Cash基金“黑金全球私募计划”即将启动,抢先获得全球分红特权</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/198309</t>
+  </si>
+  <si>
+    <t>据Superior Cash基金官方消息，Superior Cash基金会第一期全球招募以来，最大规模的扩张与招募——钞现“黑金全球私募”</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332561_image1.png</t>
+  </si>
+  <si>
+    <t>恒信国际：币市大跌之后比特币已开始小幅反弹</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/274110.html</t>
+  </si>
+  <si>
+    <t>11月16日下午，因为比特币现金的分叉币转移了比特币的部分算力，导致曾经的币市王者比特币带动了整个币市大幅下跌，大跌过后</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332567_image1.png</t>
+  </si>
+  <si>
+    <t>BCH分叉危机过后,"粉尘攻击"接踵而至</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/180248</t>
+  </si>
+  <si>
+    <t>北京时间11月16日凌晨02:16，BCH公链正式分叉产生了ABC和SV两条公链，并从556767块开始各自独立运行。
+截止目前，ABC链的块高度为……</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332548_image1.png</t>
+  </si>
+  <si>
+    <t>灼见 | 比特大陆的真实AI实力究竟怎么样？</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/274109.html</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332486_image1.png</t>
+  </si>
+  <si>
+    <t>昨晚 BCH赢了一局没有赢家的游戏</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/208367</t>
+  </si>
+  <si>
+    <t>不管是闹剧，还是悲剧，种种迹象都导向了这样一个结论：这局游戏没有绝对的赢家。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332529_image1.png</t>
+  </si>
+  <si>
+    <t>火龙果财经：区块链 让公益更进一步</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/274108.html</t>
+  </si>
+  <si>
+    <t>由此一来，人们一再担心的问题就迎刃而解了，也看到了慈善的未来。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1332549_image1.png</t>
+  </si>
+  <si>
+    <t>2018/11/16  Searchain.io  区块链数据日报 BTC 和 ETH</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/211158</t>
+  </si>
+  <si>
+    <t>昨日受BCH硬分叉事件影响，BTC迎来一波明显行情，交易所相关的链上数据均有明显增长</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1319412_image1.png</t>
   </si>
 </sst>
 </file>
@@ -1283,35 +1290,35 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -1381,164 +1388,164 @@
         <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
         <v>68</v>
       </c>
-      <c r="C18" t="s">
-        <v>67</v>
-      </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/dataconfig/title.xlsx
+++ b/dataconfig/title.xlsx
@@ -33,239 +33,238 @@
     <t>img_content</t>
   </si>
   <si>
-    <t>Google Play中发现‘虚假虚拟货币钱包’为了盗取个人信息</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/274117.html</t>
-  </si>
-  <si>
-    <t>Google Play Store中发现了虚假虚拟货币钱包</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332765_image1.png</t>
-  </si>
-  <si>
-    <t>监管松绑？｜美国众议员推行新法案 拟允许lCO绕过SEC 管制</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/205115</t>
-  </si>
-  <si>
-    <t>允许lCO回避证券法，并通过将货币视为产品而非证券来消除SEC对该行业的管辖权。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332741_image1.png</t>
-  </si>
-  <si>
-    <t>穿越熊市 区块链定投日记第22篇</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/274116.html</t>
-  </si>
-  <si>
-    <t>最稳健区块链投资日记！</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1304597_image1.png</t>
-  </si>
-  <si>
-    <t>二哥论币 | 晚资讯（2018.11.16 PM5:20）</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/79757</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1149269_image1.png</t>
-  </si>
-  <si>
-    <t>BCH加剧币圈空头格局未来之路何去何从</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/274115.html</t>
-  </si>
-  <si>
-    <t>不凡看币，技术为主！！！</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1331919_image1.png</t>
-  </si>
-  <si>
-    <t>OKCoin计划以阿根廷为起点,将业务扩至整个拉美地区!</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/207865</t>
-  </si>
-  <si>
-    <t>设在布宜诺斯艾利斯的OKCoin办事处将全力推动该公司在整个拉丁美洲的业务顺利进行</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332657_image1.png</t>
-  </si>
-  <si>
-    <t>大表姐视频：隔离见证机制是什么 + 3大优势</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/274113.html</t>
-  </si>
-  <si>
-    <t>我们这期会针对这个概念给大家用最容易理解的方式介绍一下“隔离见证”到底是什么。有网络的可以点击上面看视频，没有的可以看着文字稿件。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332732_image1.png</t>
-  </si>
-  <si>
-    <t>牛逼的BCH 比肩空气币</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/164959</t>
-  </si>
-  <si>
-    <t>这个冬天比较冷。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332701_image1.png</t>
-  </si>
-  <si>
-    <t>娱乐链等已成功入驻大型区块链娱乐平台《百姓乐》 - 招募合伙人行动还在进行中</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/273969.html</t>
-  </si>
-  <si>
-    <t>百姓乐》娱乐游戏平台是基于区块链技术的一款大型娱乐游戏平台</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1331364_image1.png</t>
-  </si>
-  <si>
-    <t>道阻且艰 | 上市之路 行则将至</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/27995</t>
-  </si>
-  <si>
-    <t>全球区块链巨头公司，正掀起第一轮上市热潮，在这股热潮下，已经有一大批区块链企业表现出上市的意向。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332686_image1.png</t>
-  </si>
-  <si>
-    <t>BCH分叉大战硝烟未尽  互撕闹剧才刚开始？</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/274112.html</t>
-  </si>
-  <si>
-    <t>互撕刚开始？烧钱之战揭开序幕</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332673_image1.png</t>
-  </si>
-  <si>
-    <t>账本与分布式账本</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/187299</t>
-  </si>
-  <si>
-    <t>从比特币的问世到区块链技术，我们知道区块链是一种去中心化的分布式账本系统，那么什么是分布式账本，能给我们带来哪些好处，与传统账本有什么区别？</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332538_image1.png</t>
-  </si>
-  <si>
-    <t>账号找回  吃鸡诛仙   区块链引领游戏时代新变革</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/274111.html</t>
-  </si>
-  <si>
-    <t>区块链无遗将会为游戏玩家带来史无前例的自由和民主。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332589_image1.png</t>
-  </si>
-  <si>
-    <t>Superior Cash基金“黑金全球私募计划”即将启动,抢先获得全球分红特权</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/198309</t>
-  </si>
-  <si>
-    <t>据Superior Cash基金官方消息，Superior Cash基金会第一期全球招募以来，最大规模的扩张与招募——钞现“黑金全球私募”</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332561_image1.png</t>
-  </si>
-  <si>
-    <t>恒信国际：币市大跌之后比特币已开始小幅反弹</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/274110.html</t>
-  </si>
-  <si>
-    <t>11月16日下午，因为比特币现金的分叉币转移了比特币的部分算力，导致曾经的币市王者比特币带动了整个币市大幅下跌，大跌过后</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332567_image1.png</t>
-  </si>
-  <si>
-    <t>BCH分叉危机过后,"粉尘攻击"接踵而至</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/180248</t>
-  </si>
-  <si>
-    <t>北京时间11月16日凌晨02:16，BCH公链正式分叉产生了ABC和SV两条公链，并从556767块开始各自独立运行。
-截止目前，ABC链的块高度为……</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332548_image1.png</t>
-  </si>
-  <si>
-    <t>灼见 | 比特大陆的真实AI实力究竟怎么样？</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/274109.html</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332486_image1.png</t>
-  </si>
-  <si>
-    <t>昨晚 BCH赢了一局没有赢家的游戏</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/208367</t>
-  </si>
-  <si>
-    <t>不管是闹剧，还是悲剧，种种迹象都导向了这样一个结论：这局游戏没有绝对的赢家。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332529_image1.png</t>
-  </si>
-  <si>
-    <t>火龙果财经：区块链 让公益更进一步</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/274108.html</t>
-  </si>
-  <si>
-    <t>由此一来，人们一再担心的问题就迎刃而解了，也看到了慈善的未来。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1332549_image1.png</t>
-  </si>
-  <si>
-    <t>2018/11/16  Searchain.io  区块链数据日报 BTC 和 ETH</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/211158</t>
-  </si>
-  <si>
-    <t>昨日受BCH硬分叉事件影响，BTC迎来一波明显行情，交易所相关的链上数据均有明显增长</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1319412_image1.png</t>
+    <t>Bibox庆生热烈进行中 200万大奖持续发放</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/news/bitcoin/276075.html</t>
+  </si>
+  <si>
+    <t>当然，打铁海的自身硬，Bibox今天的成就也少不了自身的努力。全球第一款人工智能交易所，流畅的交易体验、安全的资产管理、防作弊机制，一流的投资策略等等。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343225_image1.png</t>
+  </si>
+  <si>
+    <t>比特币暴跌能抄底吗？</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/175102</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1311318_image1.png</t>
+  </si>
+  <si>
+    <t>从进化论的思想说量化交易</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276074.html</t>
+  </si>
+  <si>
+    <t>同时大家有想法或者有自己一套赚钱思路，不妨找一下客服，共享一下您的想法，可能币圈的韭菜因你的想法或者策略收益，走出人生地谷，迈向巅峰！！！</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343236_image1.png</t>
+  </si>
+  <si>
+    <t>Angular 垮台、ES6 最受欢迎20,000 名程序员告诉你谁是 JS 王者</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/208299</t>
+  </si>
+  <si>
+    <t>任何能够用 JavaScript 实现的应用，最终都必将用 JavaScript 实现。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343200_image1.png</t>
+  </si>
+  <si>
+    <t>文化产业+区块链技术应用创新峰会 暨文产商城系统改版（文版通）上线说明会</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276073.html</t>
+  </si>
+  <si>
+    <t>2018年11月20日，由深圳文化产权交易所、数字创意创新发展中心（文化艺术品版权区块链应用基地）、大数据国家工程实验室深圳文交所区块链应用中心共同举办的“文化</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343207_image1.png</t>
+  </si>
+  <si>
+    <t>Mcoin推出资产管理平台 帮助MNT持有者收益最大化</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/204239</t>
+  </si>
+  <si>
+    <t>Mcoin交易所近期计划上线资产管理平台，帮助用户实现其数字资产的保值增值。具体上线时间，请见Mcoin交易所官方公告。（官方网址：www.mdex.mn)</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343167_image1.png</t>
+  </si>
+  <si>
+    <t>区块链或成公关照妖镜？</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276068.html</t>
+  </si>
+  <si>
+    <t>在区块链这面照妖镜下，那些虚假的妖魔鬼怪也只能原形毕露了。区块链在国内发展至今早已从单一的数字金融货币应用衍生至其他行业领域。在区块链的这片深海里，海面平静下，</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343173_image1.png</t>
+  </si>
+  <si>
+    <t>BCH可能是个没有结局的故事</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/102673</t>
+  </si>
+  <si>
+    <t>大佬战斗，矿工操纵，韭菜接盘</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343146_image1.png</t>
+  </si>
+  <si>
+    <t>BCH硬分叉闹剧未落幕  谁能是赢家</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276070.html</t>
+  </si>
+  <si>
+    <t>好多小伙伴手痒忍不住想进场了，看来市场的恐慌情绪也逐渐恢复。不过没到我认为的很好的时机，所以我会暂时观望。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1335046_image1.png</t>
+  </si>
+  <si>
+    <t>比特币价格跌破5000美元 科技股暴跌  背后原因是什么？</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/210243</t>
+  </si>
+  <si>
+    <t>区块链市场（Appasst）app，进入区块链的第一款APP。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343153_image1.png</t>
+  </si>
+  <si>
+    <t>关注1-2天内的走势  有机会走出底部形态</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276069.html</t>
+  </si>
+  <si>
+    <t>保持密切关注接下来的1-2天，有机会形成一个底部形态。我们可以尝试进场，不过也是一样，毕竟大熊市，小玩即可。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1340800_image1.png</t>
+  </si>
+  <si>
+    <t>五家对冲基金指控OKEx、在BCH分叉之际操纵合约规则</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/171533</t>
+  </si>
+  <si>
+    <t>处理与加密货币相关的衍生品为交易所开辟了新的商机。在OKEx的所有案例之中而言，该公司正面临着更多的审查。它最近修改了有关衍生品合约的条款，这突出表明需要对这些</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343127_image1.png</t>
+  </si>
+  <si>
+    <t>（11.20行情分析）SEC对违规I西欧民事处罚   投资者被保护</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276067.html</t>
+  </si>
+  <si>
+    <t>今日看什么---SEC对违规I西欧民事处罚</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1190720_image1.png</t>
+  </si>
+  <si>
+    <t>深度解析新一代的虚拟数字货币的典范：娱乐链YLS</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/209198</t>
+  </si>
+  <si>
+    <t>娱乐链YLS是基于以太坊ERC20智能合约协议产生，用户可以使用imtoken等轻钱包即可保管、存储与转发，是新一代的虚拟数字货币的典范。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343138_image1.png</t>
+  </si>
+  <si>
+    <t>LINFINITY CEO Anndy Lian：区块链赋能供应链重在落地</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276066.html</t>
+  </si>
+  <si>
+    <t>供应链越长越复杂，欺诈和渎职的机会就越大。LINFINITY CEO Anndy Lian指出，传统供应链不安全，而区块链有潜力帮助供应链进行更透明更具穿透力的管理。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1315750_image1.png</t>
+  </si>
+  <si>
+    <t>区块链夺宝游戏《ETH90》即将上线公测 参与公测赢取100个以太坊</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/163557</t>
+  </si>
+  <si>
+    <t>在这里希望《ETH90》上线公测大火！</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343114_image1.png</t>
+  </si>
+  <si>
+    <t>EOS GO发布1周年</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276065.html</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343125_image1.png</t>
+  </si>
+  <si>
+    <t>BT110|比特币暴跌创新低 它是一场数字货币骗局吗？</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/155049</t>
+  </si>
+  <si>
+    <t>BT110：比特币暴跌创新低，它是一场数字货币骗局吗？</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343123_image1.png</t>
+  </si>
+  <si>
+    <t>TBG Insights | 报复性反弹随时产生这将是中期内最有力量的多方声音</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276064.html</t>
+  </si>
+  <si>
+    <t>面对币圈的瀑布，还是有人选择逆流而上，那么币圈接下来的走势会如他所料吗？</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343101_image1.png</t>
+  </si>
+  <si>
+    <t>11. 20 行情分析：6000 5000 4500 加速下跌 共识砸盘？</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/191256</t>
+  </si>
+  <si>
+    <t>惨烈的一天</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343118_image1.png</t>
   </si>
 </sst>
 </file>
@@ -1290,35 +1289,35 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>

--- a/dataconfig/title.xlsx
+++ b/dataconfig/title.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>Title</t>
   </si>
@@ -33,238 +33,235 @@
     <t>img_content</t>
   </si>
   <si>
-    <t>Bibox庆生热烈进行中 200万大奖持续发放</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/news/bitcoin/276075.html</t>
-  </si>
-  <si>
-    <t>当然，打铁海的自身硬，Bibox今天的成就也少不了自身的努力。全球第一款人工智能交易所，流畅的交易体验、安全的资产管理、防作弊机制，一流的投资策略等等。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343225_image1.png</t>
-  </si>
-  <si>
-    <t>比特币暴跌能抄底吗？</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/175102</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1311318_image1.png</t>
-  </si>
-  <si>
-    <t>从进化论的思想说量化交易</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276074.html</t>
-  </si>
-  <si>
-    <t>同时大家有想法或者有自己一套赚钱思路，不妨找一下客服，共享一下您的想法，可能币圈的韭菜因你的想法或者策略收益，走出人生地谷，迈向巅峰！！！</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343236_image1.png</t>
-  </si>
-  <si>
-    <t>Angular 垮台、ES6 最受欢迎20,000 名程序员告诉你谁是 JS 王者</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/208299</t>
-  </si>
-  <si>
-    <t>任何能够用 JavaScript 实现的应用，最终都必将用 JavaScript 实现。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343200_image1.png</t>
-  </si>
-  <si>
-    <t>文化产业+区块链技术应用创新峰会 暨文产商城系统改版（文版通）上线说明会</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276073.html</t>
-  </si>
-  <si>
-    <t>2018年11月20日，由深圳文化产权交易所、数字创意创新发展中心（文化艺术品版权区块链应用基地）、大数据国家工程实验室深圳文交所区块链应用中心共同举办的“文化</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343207_image1.png</t>
-  </si>
-  <si>
-    <t>Mcoin推出资产管理平台 帮助MNT持有者收益最大化</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/204239</t>
-  </si>
-  <si>
-    <t>Mcoin交易所近期计划上线资产管理平台，帮助用户实现其数字资产的保值增值。具体上线时间，请见Mcoin交易所官方公告。（官方网址：www.mdex.mn)</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343167_image1.png</t>
-  </si>
-  <si>
-    <t>区块链或成公关照妖镜？</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276068.html</t>
-  </si>
-  <si>
-    <t>在区块链这面照妖镜下，那些虚假的妖魔鬼怪也只能原形毕露了。区块链在国内发展至今早已从单一的数字金融货币应用衍生至其他行业领域。在区块链的这片深海里，海面平静下，</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343173_image1.png</t>
-  </si>
-  <si>
-    <t>BCH可能是个没有结局的故事</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/102673</t>
-  </si>
-  <si>
-    <t>大佬战斗，矿工操纵，韭菜接盘</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343146_image1.png</t>
-  </si>
-  <si>
-    <t>BCH硬分叉闹剧未落幕  谁能是赢家</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276070.html</t>
-  </si>
-  <si>
-    <t>好多小伙伴手痒忍不住想进场了，看来市场的恐慌情绪也逐渐恢复。不过没到我认为的很好的时机，所以我会暂时观望。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1335046_image1.png</t>
-  </si>
-  <si>
-    <t>比特币价格跌破5000美元 科技股暴跌  背后原因是什么？</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/210243</t>
-  </si>
-  <si>
-    <t>区块链市场（Appasst）app，进入区块链的第一款APP。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343153_image1.png</t>
-  </si>
-  <si>
-    <t>关注1-2天内的走势  有机会走出底部形态</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276069.html</t>
-  </si>
-  <si>
-    <t>保持密切关注接下来的1-2天，有机会形成一个底部形态。我们可以尝试进场，不过也是一样，毕竟大熊市，小玩即可。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1340800_image1.png</t>
-  </si>
-  <si>
-    <t>五家对冲基金指控OKEx、在BCH分叉之际操纵合约规则</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/171533</t>
-  </si>
-  <si>
-    <t>处理与加密货币相关的衍生品为交易所开辟了新的商机。在OKEx的所有案例之中而言，该公司正面临着更多的审查。它最近修改了有关衍生品合约的条款，这突出表明需要对这些</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343127_image1.png</t>
-  </si>
-  <si>
-    <t>（11.20行情分析）SEC对违规I西欧民事处罚   投资者被保护</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276067.html</t>
-  </si>
-  <si>
-    <t>今日看什么---SEC对违规I西欧民事处罚</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1190720_image1.png</t>
-  </si>
-  <si>
-    <t>深度解析新一代的虚拟数字货币的典范：娱乐链YLS</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/209198</t>
-  </si>
-  <si>
-    <t>娱乐链YLS是基于以太坊ERC20智能合约协议产生，用户可以使用imtoken等轻钱包即可保管、存储与转发，是新一代的虚拟数字货币的典范。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343138_image1.png</t>
-  </si>
-  <si>
-    <t>LINFINITY CEO Anndy Lian：区块链赋能供应链重在落地</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276066.html</t>
-  </si>
-  <si>
-    <t>供应链越长越复杂，欺诈和渎职的机会就越大。LINFINITY CEO Anndy Lian指出，传统供应链不安全，而区块链有潜力帮助供应链进行更透明更具穿透力的管理。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1315750_image1.png</t>
-  </si>
-  <si>
-    <t>区块链夺宝游戏《ETH90》即将上线公测 参与公测赢取100个以太坊</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/163557</t>
-  </si>
-  <si>
-    <t>在这里希望《ETH90》上线公测大火！</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343114_image1.png</t>
-  </si>
-  <si>
-    <t>EOS GO发布1周年</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276065.html</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343125_image1.png</t>
-  </si>
-  <si>
-    <t>BT110|比特币暴跌创新低 它是一场数字货币骗局吗？</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/155049</t>
-  </si>
-  <si>
-    <t>BT110：比特币暴跌创新低，它是一场数字货币骗局吗？</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343123_image1.png</t>
-  </si>
-  <si>
-    <t>TBG Insights | 报复性反弹随时产生这将是中期内最有力量的多方声音</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276064.html</t>
-  </si>
-  <si>
-    <t>面对币圈的瀑布，还是有人选择逆流而上，那么币圈接下来的走势会如他所料吗？</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343101_image1.png</t>
-  </si>
-  <si>
-    <t>11. 20 行情分析：6000 5000 4500 加速下跌 共识砸盘？</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/191256</t>
-  </si>
-  <si>
-    <t>惨烈的一天</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343118_image1.png</t>
+    <t>是捍卫言论自由还是整顿网络暴力</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276430.html</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1345469_image1.png</t>
+  </si>
+  <si>
+    <t>区块链十年 | 第1.2章  2008 比特币白皮书</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/208800</t>
+  </si>
+  <si>
+    <t>在世界的某个角落里，中本聪开发的第一版比特币客户端也即将完成。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1345449_image1.png</t>
+  </si>
+  <si>
+    <t>懂个币 BSV扛不住了？算力战已让矿工损失数百万美元收入</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276429.html</t>
+  </si>
+  <si>
+    <t>算力战让矿工损失数百万美元收入。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343898_image1.png</t>
+  </si>
+  <si>
+    <t>4分钟课堂 | 经济泡沫是如何产生的？</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/190014</t>
+  </si>
+  <si>
+    <t>自17世纪荷兰“郁金香狂热”事件成为第一场经济泡沫后，市场涌现出房地产泡沫 、股市泡沫、互联网泡沫、甚至比特币泡沫等各种经济泡沫。经济学家将经济泡沫分为五个阶段</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1345452_image1.png</t>
+  </si>
+  <si>
+    <t>区块链十年 | 第1.1章  2008 世界金融危机</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276173.html</t>
+  </si>
+  <si>
+    <t>面对金融危机，一位神秘人思考着自己的解决方案......</t>
+  </si>
+  <si>
+    <t>2018.11.21 今日早盘短线策略 遵守规则敬畏市场</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/211555</t>
+  </si>
+  <si>
+    <t>2018.11.21 早间策略一览</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1298737_image1.png</t>
+  </si>
+  <si>
+    <t>哈希派：多头反弹软绵绵、但空头也想休息一下了</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276427.html</t>
+  </si>
+  <si>
+    <t>今日行情分析币种：BTC / ETH / EOS / BCH / XRP / LTC</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1330734_image1.png</t>
+  </si>
+  <si>
+    <t>万点财经熊市专栏|陶太胜的熊市生存法则</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/202987</t>
+  </si>
+  <si>
+    <t>我本尘埃，因花而来</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1345385_image1.png</t>
+  </si>
+  <si>
+    <t>加密货币市值24小时蒸发2600亿“避险属性”丧失共识肢解？</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276426.html</t>
+  </si>
+  <si>
+    <t>这场暴跌背后，有更深层的原因和更深远的影响。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343868_image1.png</t>
+  </si>
+  <si>
+    <t>走进区块链企业 | 赵伟：冬天很冷但我们很感谢这个冬天</t>
+  </si>
+  <si>
+    <t>这是一家走进去，便想细细去探索一番的企业</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343833_image1.png</t>
+  </si>
+  <si>
+    <t>人工智能与区块链的边界逐渐模糊，软硬件将如何结合？</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276425.html</t>
+  </si>
+  <si>
+    <t>2018年11月18日，2018比原链全球开发者大会在杭州国际博览中心（G20会馆）继续进行，这是杭州第一次由开源组织举办的技术型峰会，也是杭州被誉为区块链之城以来规模最大的一场区块链开发者</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1345437_image1.png</t>
+  </si>
+  <si>
+    <t>OGC第一款DAPP即将震撼来袭</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/208546</t>
+  </si>
+  <si>
+    <t>DAPP是OGC技术应用落地的第一步，也是其对全球网游行业颠覆之路的正式实施。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1345335_image1.png</t>
+  </si>
+  <si>
+    <t>兄弟们秋裤不顶事了棉裤穿上吧</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276424.html</t>
+  </si>
+  <si>
+    <t>矿机论斤卖。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343806_image1.png</t>
+  </si>
+  <si>
+    <t>AiBiChain创始人刘靖中入围“2018中国创新榜样人物”</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/26030</t>
+  </si>
+  <si>
+    <t>作为数字技术的前沿，近年来区块链技术在许多国家受到越来越多的关注。在中国，区块链与其他几个重要新技术一并被列为《“十三五”国家信息化规划》中的“重大任务和重点</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1345305_image1.png</t>
+  </si>
+  <si>
+    <t>网信办主管媒体针对区块链连发8文：肯定Token价值 落地应用是重点</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276423.html</t>
+  </si>
+  <si>
+    <t>结合区块链目前“遇冷”的行业背景，或许可从这几篇组稿以一窥网信办等国家机构现阶段对于区块链的立场和态度。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1345340_image1.png</t>
+  </si>
+  <si>
+    <t>“大崩盘”过后策略抄底的机会来了</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/142128</t>
+  </si>
+  <si>
+    <t>捡垃圾的时候到了</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343795_image1.png</t>
+  </si>
+  <si>
+    <t>谁也没有想到 区块链还能用来熬鸡汤</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276169.html</t>
+  </si>
+  <si>
+    <t>希望这是币圈人熬的最后一碗“鸡汤”。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1345343_image1.png</t>
+  </si>
+  <si>
+    <t>币易Coinyee.io交易所1周年 百万Token大派送 100%有礼</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/126549</t>
+  </si>
+  <si>
+    <t>为感谢广大用户朋友们一直以来的陪伴与支持，币易Coinyee.io特借助1周年生日的机会，举办了一场价值百万元Token好礼派送活动，100%有礼！</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1345140_image1.png</t>
+  </si>
+  <si>
+    <t>英雄会聚 恰逢其时 元界CTO陈浩受邀参加Money20/20峰会圆桌会议 共话区块链最新趋势</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276163.html</t>
+  </si>
+  <si>
+    <t>元界CTO陈浩受Money20/20主办方邀请参与圆桌会谈环节与全球“重量级”演讲嘉宾就如何打造金融区块链进行了深入的交流探讨。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1345331_image1.png</t>
+  </si>
+  <si>
+    <t>NVIDIA Q3盈利报告印证了加密货币采矿业务正在枯竭</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/214042</t>
+  </si>
+  <si>
+    <t>美国芯片龙头科技公司NVIDIA在2018年11月15日发布了2018年第三季度财报。该报告指出</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1343723_image1.png</t>
   </si>
 </sst>
 </file>
@@ -1275,21 +1272,21 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -1334,217 +1331,217 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
         <v>36</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>40</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>49</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>53</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
         <v>56</v>
       </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" t="s">
+      <c r="D16" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="D17" t="s">
         <v>65</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>72</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>73</v>
-      </c>
-      <c r="D19" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
         <v>75</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>76</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>77</v>
-      </c>
-      <c r="D20" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" t="s">
         <v>79</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>80</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>81</v>
-      </c>
-      <c r="D21" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/dataconfig/title.xlsx
+++ b/dataconfig/title.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>Title</t>
   </si>
@@ -33,235 +33,235 @@
     <t>img_content</t>
   </si>
   <si>
-    <t>是捍卫言论自由还是整顿网络暴力</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276430.html</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1345469_image1.png</t>
-  </si>
-  <si>
-    <t>区块链十年 | 第1.2章  2008 比特币白皮书</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/208800</t>
-  </si>
-  <si>
-    <t>在世界的某个角落里，中本聪开发的第一版比特币客户端也即将完成。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1345449_image1.png</t>
-  </si>
-  <si>
-    <t>懂个币 BSV扛不住了？算力战已让矿工损失数百万美元收入</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276429.html</t>
-  </si>
-  <si>
-    <t>算力战让矿工损失数百万美元收入。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343898_image1.png</t>
-  </si>
-  <si>
-    <t>4分钟课堂 | 经济泡沫是如何产生的？</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/190014</t>
-  </si>
-  <si>
-    <t>自17世纪荷兰“郁金香狂热”事件成为第一场经济泡沫后，市场涌现出房地产泡沫 、股市泡沫、互联网泡沫、甚至比特币泡沫等各种经济泡沫。经济学家将经济泡沫分为五个阶段</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1345452_image1.png</t>
-  </si>
-  <si>
-    <t>区块链十年 | 第1.1章  2008 世界金融危机</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276173.html</t>
-  </si>
-  <si>
-    <t>面对金融危机，一位神秘人思考着自己的解决方案......</t>
-  </si>
-  <si>
-    <t>2018.11.21 今日早盘短线策略 遵守规则敬畏市场</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/211555</t>
-  </si>
-  <si>
-    <t>2018.11.21 早间策略一览</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1298737_image1.png</t>
-  </si>
-  <si>
-    <t>哈希派：多头反弹软绵绵、但空头也想休息一下了</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276427.html</t>
-  </si>
-  <si>
-    <t>今日行情分析币种：BTC / ETH / EOS / BCH / XRP / LTC</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1330734_image1.png</t>
-  </si>
-  <si>
-    <t>万点财经熊市专栏|陶太胜的熊市生存法则</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/202987</t>
-  </si>
-  <si>
-    <t>我本尘埃，因花而来</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1345385_image1.png</t>
-  </si>
-  <si>
-    <t>加密货币市值24小时蒸发2600亿“避险属性”丧失共识肢解？</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276426.html</t>
-  </si>
-  <si>
-    <t>这场暴跌背后，有更深层的原因和更深远的影响。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343868_image1.png</t>
-  </si>
-  <si>
-    <t>走进区块链企业 | 赵伟：冬天很冷但我们很感谢这个冬天</t>
-  </si>
-  <si>
-    <t>这是一家走进去，便想细细去探索一番的企业</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343833_image1.png</t>
-  </si>
-  <si>
-    <t>人工智能与区块链的边界逐渐模糊，软硬件将如何结合？</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276425.html</t>
-  </si>
-  <si>
-    <t>2018年11月18日，2018比原链全球开发者大会在杭州国际博览中心（G20会馆）继续进行，这是杭州第一次由开源组织举办的技术型峰会，也是杭州被誉为区块链之城以来规模最大的一场区块链开发者</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1345437_image1.png</t>
-  </si>
-  <si>
-    <t>OGC第一款DAPP即将震撼来袭</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/208546</t>
-  </si>
-  <si>
-    <t>DAPP是OGC技术应用落地的第一步，也是其对全球网游行业颠覆之路的正式实施。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1345335_image1.png</t>
-  </si>
-  <si>
-    <t>兄弟们秋裤不顶事了棉裤穿上吧</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276424.html</t>
-  </si>
-  <si>
-    <t>矿机论斤卖。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343806_image1.png</t>
-  </si>
-  <si>
-    <t>AiBiChain创始人刘靖中入围“2018中国创新榜样人物”</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/26030</t>
-  </si>
-  <si>
-    <t>作为数字技术的前沿，近年来区块链技术在许多国家受到越来越多的关注。在中国，区块链与其他几个重要新技术一并被列为《“十三五”国家信息化规划》中的“重大任务和重点</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1345305_image1.png</t>
-  </si>
-  <si>
-    <t>网信办主管媒体针对区块链连发8文：肯定Token价值 落地应用是重点</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276423.html</t>
-  </si>
-  <si>
-    <t>结合区块链目前“遇冷”的行业背景，或许可从这几篇组稿以一窥网信办等国家机构现阶段对于区块链的立场和态度。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1345340_image1.png</t>
-  </si>
-  <si>
-    <t>“大崩盘”过后策略抄底的机会来了</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/142128</t>
-  </si>
-  <si>
-    <t>捡垃圾的时候到了</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343795_image1.png</t>
-  </si>
-  <si>
-    <t>谁也没有想到 区块链还能用来熬鸡汤</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276169.html</t>
-  </si>
-  <si>
-    <t>希望这是币圈人熬的最后一碗“鸡汤”。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1345343_image1.png</t>
-  </si>
-  <si>
-    <t>币易Coinyee.io交易所1周年 百万Token大派送 100%有礼</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/126549</t>
-  </si>
-  <si>
-    <t>为感谢广大用户朋友们一直以来的陪伴与支持，币易Coinyee.io特借助1周年生日的机会，举办了一场价值百万元Token好礼派送活动，100%有礼！</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1345140_image1.png</t>
-  </si>
-  <si>
-    <t>英雄会聚 恰逢其时 元界CTO陈浩受邀参加Money20/20峰会圆桌会议 共话区块链最新趋势</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/bitcoin/276163.html</t>
-  </si>
-  <si>
-    <t>元界CTO陈浩受Money20/20主办方邀请参与圆桌会谈环节与全球“重量级”演讲嘉宾就如何打造金融区块链进行了深入的交流探讨。</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1345331_image1.png</t>
-  </si>
-  <si>
-    <t>NVIDIA Q3盈利报告印证了加密货币采矿业务正在枯竭</t>
-  </si>
-  <si>
-    <t>https://www.jinse.com/member/214042</t>
-  </si>
-  <si>
-    <t>美国芯片龙头科技公司NVIDIA在2018年11月15日发布了2018年第三季度财报。该报告指出</t>
-  </si>
-  <si>
-    <t>https://img.jinse.com/1343723_image1.png</t>
+    <t>区块链3.0大军碾压后存活下的公链是怎样神奇的存在</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276669.html</t>
+  </si>
+  <si>
+    <t>在一个较为清晰的公链结构中，我们可以大致看到，底层是各个节点组成的网络结构，这一层主要承担的是数据交换信息沟通的技术能力</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346723_image1.png</t>
+  </si>
+  <si>
+    <t>美国执法机构正调查比特币价格是否被操控</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/182102</t>
+  </si>
+  <si>
+    <t>币价一天低过一天，心疼一次超过一次，在这种看行情都需要勇气的日子，这时候该回头想想了</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346720_image1.png</t>
+  </si>
+  <si>
+    <t>和数软件：前沿技术区块链对可持续发展存在潜在贡献</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276668.html</t>
+  </si>
+  <si>
+    <t>前沿技术是未来高技术更新换代和新兴产业发展的重要基础，是国家高技术创新能力的综合体现。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346710_image1.png</t>
+  </si>
+  <si>
+    <t>苏州和数区块链研究院第二届“互联网数据结构创新应用班”认证培训圆满落幕</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/139989</t>
+  </si>
+  <si>
+    <t>2018年11月18日，由苏州科技大学天平学院、苏州和数区块链应用研究院联合举办的“第二届互联网数据结构创新应用班”圆满落幕。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346696_image1.png</t>
+  </si>
+  <si>
+    <t>[视频] 《月球情报局》：“矿机按斤甩卖”上百度热搜</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276667.html</t>
+  </si>
+  <si>
+    <t>1、“矿机按斤甩卖”上百度热搜；
+2、Bakkt宣布比特币期货交易推迟至明年一月；
+3、近日多个美国币圈媒体被封号；
+4、市场持续受BCH分叉事件影响；</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1203363_image1.png</t>
+  </si>
+  <si>
+    <t>我们不是潮流单品 我们是时代刚需</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/24619</t>
+  </si>
+  <si>
+    <t>据称，贞操链MRC是为解决真实的社会问题而生。它的愿景是逐一解决由基础单元的两性问题所衍生出的健康与社会问题，从而建立一个适应我们这个时代需要的道德体系。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346678_image1.png</t>
+  </si>
+  <si>
+    <t>暴跌之下必有翻转  别人恐惧你应更贪婪</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276664.html</t>
+  </si>
+  <si>
+    <t>暴跌之下必有翻转</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346669_image1.png</t>
+  </si>
+  <si>
+    <t>数据显示：今年比特币在支付中的使用大幅下降!</t>
+  </si>
+  <si>
+    <t>今年比特币在支付中的使用大幅下降！</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346668_image1.png</t>
+  </si>
+  <si>
+    <t>The Big Issue推出区块链平台,以促进影响力投资</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276662.html</t>
+  </si>
+  <si>
+    <t>街头报纸The Big Issue推出区块链平台,以促进影响力投资</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346663_image1.png</t>
+  </si>
+  <si>
+    <t>SWIFT印度企业与MonetaGo合作进行区块链试点</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/101732</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346661_image1.png</t>
+  </si>
+  <si>
+    <t>DEX 22日确定DigiFinex上市</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276661.html</t>
+  </si>
+  <si>
+    <t>韩国密码货币交易所Coinbit的交易所币DEX在11月22日星期四下午4点宣布上市。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346614_image1.png</t>
+  </si>
+  <si>
+    <t>BITT：打造区块链信用金融</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/209888</t>
+  </si>
+  <si>
+    <t>BITT, 是建立在区块链基础上的，通过加密算法、点对点网络、共识算法等技术，为交易双方提供了一种安全、高效、可靠、透明的商业交易模式。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346629_image1.png</t>
+  </si>
+  <si>
+    <t>中国平安推出区块链精品银行,将为消费者提供更多个性化服务</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276660.html</t>
+  </si>
+  <si>
+    <t>中国平安推出区块链精品银行，将为消费者提供更多个性化服务</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346631_image1.png</t>
+  </si>
+  <si>
+    <t>视频: 区块链100问第22期 比特币交易和找零机制</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/206193</t>
+  </si>
+  <si>
+    <t>比特币转账可以一次把多个地址的余额转出，也可以一次转入多个地址。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346615_image1.png</t>
+  </si>
+  <si>
+    <t>老外在看什么|阮吉米：算力战背后的真相与后果</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276659.html</t>
+  </si>
+  <si>
+    <t>阮吉米发视频谈算力战：算力战背后的真相与后果。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1345671_image1.png</t>
+  </si>
+  <si>
+    <t>区块链给我们生活带来怎样的火花</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/member/187299</t>
+  </si>
+  <si>
+    <t>对于区块链的探寻之旅还在继续，因为它还在持续改变我们的生活。我们需要注意任何区块链带来的创新.....</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346600_image1.png</t>
+  </si>
+  <si>
+    <t>趋虚拟资产纳入监管是大势所</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276658.html</t>
+  </si>
+  <si>
+    <t>香港证监会的新规无疑是将比特币这些数字资产变为主流资产的重要一个步骤。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346557_image1.png</t>
+  </si>
+  <si>
+    <t>直播预告|带你见证下一个百倍币的诞生</t>
+  </si>
+  <si>
+    <t>漫漫熊市大佬教你如何保值囤币</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346597_image1.png</t>
+  </si>
+  <si>
+    <t>未来EOS会超越以太坊吗？</t>
+  </si>
+  <si>
+    <t>https://www.jinse.com/bitcoin/276657.html</t>
+  </si>
+  <si>
+    <t>从EOS众筹以来，关于EOS和以太坊的争论就没有停止过。到底谁会发展更好，成为发展势头最好的公链了？我们可以简单从以下三方面来看待。</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1339771_image1.png</t>
+  </si>
+  <si>
+    <t>四分钟让你全面了解车位链ParkECO</t>
+  </si>
+  <si>
+    <t>ParkECO如何实现了确权存证、交易流通以和技术应用，及其未来愿景</t>
+  </si>
+  <si>
+    <t>https://img.jinse.com/1346524_image1.png</t>
   </si>
 </sst>
 </file>
@@ -1272,242 +1272,242 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
         <v>72</v>
@@ -1535,13 +1535,13 @@
         <v>78</v>
       </c>
       <c r="B21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" t="s">
         <v>79</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>80</v>
-      </c>
-      <c r="D21" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
